--- a/data/test_shop.xlsx
+++ b/data/test_shop.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="171">
   <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -697,6 +697,16 @@
   </si>
   <si>
     <t>{"traceID":"1497509847435","accessToken":"","hisFlag":"0","printerPageSize":"80","orderJson":{"allFoodRemark":"","areaName":"","bizModel":"0","discountWayKey":"","discountWayName":"","empCode":"1001","empName":"许晨","FJZFlag":"","foodLst":[],"isReturnPrintContent":"1","orderSubType":"0","person":"4","printWay":"SERVER_PRINT","printerPageSize":"80","saasDeviceOrderNo":"","saasOrderKey":"20170703183524760561960122","saasOrderNo":"","saasOrderRemark":"","tableName":"tab6","userAddress":"","userMobile":"0","userName":"","userSex":"0"},"actionType":"JZ","submitBatchNo":"ac728bcc-fd20-4c43-872b-c7c061c6b89f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/m/web/shizhanapi/loadmorepingjia.html?cart=11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data = {
+        'cart': '11'
+    }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1113,9 +1123,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1148,18 +1158,18 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>164</v>

--- a/data/test_shop.xlsx
+++ b/data/test_shop.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="172">
   <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -680,10 +680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"msg":"绑定成功","traceID":"1497509847435","code":"000","success":"true"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"msg":"支付科目添加成功","traceID":"1497509847435","code":"000"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -700,13 +696,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/m/web/shizhanapi/loadmorepingjia.html?cart=11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data = {
-        'cart': '11'
-    }</t>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"msg": "执行成功", "code": "000"}</t>
+  </si>
+  <si>
+    <t>/or/shop?groupID=11157&amp;businessType=1&amp;pageNum=1&amp;lng=116.34619903564453&amp;lat=39.939613342285156&amp;groupID=11157</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,7 +715,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -725,6 +726,23 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -754,10 +772,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -782,9 +801,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1123,9 +1144,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1158,25 +1179,23 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>144</v>
-      </c>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
@@ -1888,8 +1907,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://172.16.32.39:5000/query/query_cases/5a65494d64b4ad099374a348"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2896,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2913,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>121</v>
@@ -2930,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>122</v>
